--- a/EventTimes/ADRIFT_GgDetections.xlsx
+++ b/EventTimes/ADRIFT_GgDetections.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28723"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9d4c4f1623d30376/Documents/Thesis Work/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9d4c4f1623d30376/Documents/GitHub/Rissos_Geographic_Variation/EventTimes/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="63" documentId="11_B784BFDC8F79A89360642C52EA7BD272EACD68DB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3EF344C4-5ECA-4341-AB14-03769A2CC57B}"/>
@@ -180,7 +180,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss\ \U\T\C"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -534,23 +534,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="33" workbookViewId="0">
-      <selection activeCell="J123" sqref="J123"/>
+    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="30.73046875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.1328125" style="3" customWidth="1"/>
     <col min="3" max="3" width="17" style="3" customWidth="1"/>
     <col min="4" max="5" width="9" style="3"/>
-    <col min="6" max="6" width="33.140625" style="2" customWidth="1"/>
-    <col min="7" max="8" width="21.7109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="24.140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="33.1328125" style="2" customWidth="1"/>
+    <col min="7" max="8" width="21.73046875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="24.1328125" style="3" customWidth="1"/>
     <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -579,7 +579,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>44403.170833333337</v>
       </c>
@@ -608,7 +608,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>44407.519768518519</v>
       </c>
@@ -637,7 +637,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>44404.561458333337</v>
       </c>
@@ -666,7 +666,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>44360.256701388891</v>
       </c>
@@ -695,7 +695,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>44580.109351851846</v>
       </c>
@@ -724,7 +724,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>44580.177847222221</v>
       </c>
@@ -753,7 +753,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>44580.225891203707</v>
       </c>
@@ -782,7 +782,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>44580.253530092603</v>
       </c>
@@ -811,7 +811,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>44580.292696759258</v>
       </c>
@@ -840,7 +840,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>44735.246354166673</v>
       </c>
@@ -869,7 +869,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>44737.283750000002</v>
       </c>
@@ -898,7 +898,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>44818.156134259261</v>
       </c>
@@ -927,7 +927,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>44818.185706018507</v>
       </c>
@@ -956,7 +956,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>44882.326249999998</v>
       </c>
@@ -985,7 +985,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>44909.985347222217</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
         <v>44910.070185185177</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
         <v>45005.351689814823</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
         <v>45005.294664351852</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
         <v>45002.156157407408</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
         <v>45002.272129629629</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
         <v>45002.29892361111</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
         <v>45002.429236111107</v>
       </c>
@@ -1217,7 +1217,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="2">
         <v>45002.964166666672</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" s="2">
         <v>45002.077708333338</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
         <v>45002.114224537043</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
         <v>45002.160868055551</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" s="2">
         <v>45002.342222222222</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" s="2">
         <v>45002.523240740753</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
         <v>45003.08756944444</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" s="2">
         <v>45003.336469907408</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" s="2">
         <v>45002.345046296286</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" s="2">
         <v>45003.131979166668</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" s="2">
         <v>45003.354826388888</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" s="2">
         <v>45044.219282407408</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" s="2">
         <v>45054.301666666674</v>
       </c>
@@ -1594,7 +1594,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" s="2">
         <v>45054.415324074071</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" s="2">
         <v>45054.290162037039</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" s="2">
         <v>45054.415335648147</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" s="2">
         <v>45055.170219907413</v>
       </c>
@@ -1710,7 +1710,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41" s="2">
         <v>45055.351006944453</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" s="2">
         <v>45055.378020833326</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" s="2">
         <v>45128.184965277767</v>
       </c>
@@ -1797,7 +1797,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" s="2">
         <v>45119.225254629629</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" s="2">
         <v>45119.310439814813</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46" s="2">
         <v>45119.398460648154</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47" s="2">
         <v>45122.301076388889</v>
       </c>
@@ -1913,7 +1913,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" s="2">
         <v>45119.29614583333</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49" s="2">
         <v>45123.17931712963</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50" s="2">
         <v>45143.215335648143</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51" s="2">
         <v>45166.222685185188</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52" s="2">
         <v>43358.436255787034</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A53" s="2">
         <v>43358.450086805547</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A54" s="2">
         <v>43358.464033564807</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A55" s="2">
         <v>43358.477864583328</v>
       </c>
@@ -2133,7 +2133,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A56" s="2">
         <v>43338.193535879633</v>
       </c>
@@ -2159,7 +2159,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A57" s="2">
         <v>43338.207309027777</v>
       </c>
@@ -2185,7 +2185,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A58" s="2">
         <v>43339.263501157402</v>
       </c>
@@ -2211,7 +2211,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A59" s="2">
         <v>43339.277042824076</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A60" s="2">
         <v>43339.290700231482</v>
       </c>
@@ -2263,7 +2263,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A61" s="2">
         <v>43339.304589120373</v>
       </c>
@@ -2289,7 +2289,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A62" s="2">
         <v>43339.734913194443</v>
       </c>
@@ -2315,7 +2315,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A63" s="2">
         <v>43339.749149305557</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A64" s="2">
         <v>43344.179531250003</v>
       </c>
@@ -2367,7 +2367,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A65" s="2">
         <v>43344.193420138887</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A66" s="2">
         <v>43345.248917824079</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A67" s="2">
         <v>43345.262748842593</v>
       </c>
@@ -2445,7 +2445,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A68" s="2">
         <v>43345.2769849537</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A69" s="2">
         <v>43345.457366898147</v>
       </c>
@@ -2497,7 +2497,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A70" s="2">
         <v>43346.276753472222</v>
       </c>
@@ -2523,7 +2523,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A71" s="2">
         <v>43347.457482638893</v>
       </c>
@@ -2549,7 +2549,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A72" s="2">
         <v>43348.318304398148</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A73" s="2">
         <v>43348.332193287039</v>
       </c>
@@ -2601,7 +2601,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A74" s="2">
         <v>43349.151695601853</v>
       </c>
@@ -2627,7 +2627,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A75" s="2">
         <v>43349.458234953709</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A76" s="2">
         <v>43349.471487268507</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A77" s="2">
         <v>43351.24909143518</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A78" s="2">
         <v>43353.151637731477</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A79" s="2">
         <v>43357.471313657406</v>
       </c>
@@ -2757,7 +2757,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A80" s="2">
         <v>43358.318188657402</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A81" s="2">
         <v>43359.318651620371</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A82" s="2">
         <v>43363.818651620371</v>
       </c>
@@ -2835,7 +2835,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A83" s="2">
         <v>43367.123802083333</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A84" s="2">
         <v>43367.138211805563</v>
       </c>
@@ -2887,7 +2887,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A85" s="2">
         <v>43367.151695601853</v>
       </c>
@@ -2913,7 +2913,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A86" s="2">
         <v>43368.346197916668</v>
       </c>
@@ -2939,7 +2939,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A87" s="2">
         <v>43368.359971064812</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A88" s="2">
         <v>43370.290642361113</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A89" s="2">
         <v>43370.304704861112</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A90" s="2">
         <v>43370.373859953703</v>
       </c>
@@ -3043,7 +3043,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A91" s="2">
         <v>43370.401753472222</v>
       </c>
@@ -3069,7 +3069,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A92" s="2">
         <v>43370.41587384259</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A93" s="2">
         <v>43372.929473379627</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A94" s="2">
         <v>43372.943709490741</v>
       </c>
@@ -3147,7 +3147,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A95" s="2">
         <v>43353.138153935193</v>
       </c>
@@ -3173,7 +3173,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A96" s="2">
         <v>43369.178304398149</v>
       </c>
@@ -3199,7 +3199,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A97" s="2">
         <v>43369.192193287032</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A98" s="2">
         <v>43369.219971064813</v>
       </c>
@@ -3251,7 +3251,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A99" s="2">
         <v>43369.733802083327</v>
       </c>
@@ -3277,7 +3277,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A100" s="2">
         <v>43370.192251157408</v>
       </c>
@@ -3303,7 +3303,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A101" s="2">
         <v>42612.580873842591</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A102" s="2">
         <v>42614.355943287039</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A103" s="2">
         <v>42615.103859953699</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A104" s="2">
         <v>42616.176603009248</v>
       </c>
@@ -3419,7 +3419,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A105" s="2">
         <v>42616.414797453697</v>
       </c>
@@ -3448,7 +3448,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A106" s="2">
         <v>42618.576927083333</v>
       </c>
@@ -3477,7 +3477,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A107" s="2">
         <v>42623.506336805563</v>
       </c>
@@ -3506,7 +3506,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A108" s="2">
         <v>42612.561255787034</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A109" s="2">
         <v>42616.558420138877</v>
       </c>
@@ -3564,7 +3564,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A110" s="2">
         <v>42617.194646990742</v>
       </c>
@@ -3593,7 +3593,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A111" s="2">
         <v>42618.178038194441</v>
       </c>
@@ -3622,7 +3622,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A112" s="2">
         <v>42618.300086805553</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A113" s="2">
         <v>42612.348975694447</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A114" s="2">
         <v>42612.474091435193</v>
       </c>
@@ -3709,7 +3709,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A115" s="2">
         <v>42617.710376157411</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A116" s="2">
         <v>42618.696718749998</v>
       </c>
@@ -3767,7 +3767,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A117" s="2">
         <v>42610.535399305547</v>
       </c>
@@ -3796,7 +3796,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A118" s="2">
         <v>42612.31131365741</v>
       </c>
@@ -3825,7 +3825,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A119" s="2">
         <v>42612.969021990742</v>
       </c>
@@ -3854,7 +3854,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A120" s="2">
         <v>42616.257019675933</v>
       </c>
@@ -3883,7 +3883,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A121" s="2">
         <v>42621.241869212958</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A122" s="2">
         <v>42623.419010416663</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A123" s="2">
         <v>42624.161082175917</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A124" s="2">
         <v>42626.26449652778</v>
       </c>
@@ -3999,7 +3999,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A125" s="2">
         <v>42626.344184027781</v>
       </c>
@@ -4028,7 +4028,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A126" s="2">
         <v>42627.304484953696</v>
       </c>
@@ -4057,7 +4057,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A127" s="2">
         <v>42612.397146990741</v>
       </c>
@@ -4086,7 +4086,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A128" s="2">
         <v>42627.17509837963</v>
       </c>
